--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1075,7 @@
         <v>0.9940714062568468</v>
       </c>
       <c r="F13">
-        <v>0.9943235584194051</v>
+        <v>0.9943235584194052</v>
       </c>
       <c r="G13">
         <v>0.9952493334421517</v>
@@ -1093,7 +1093,7 @@
         <v>0.9947240407802228</v>
       </c>
       <c r="L13">
-        <v>0.9940080201044339</v>
+        <v>0.9940080201044336</v>
       </c>
       <c r="M13">
         <v>0.9952204076170561</v>
@@ -1102,7 +1102,7 @@
         <v>0.9945821194719666</v>
       </c>
       <c r="O13">
-        <v>0.9946842827013725</v>
+        <v>0.9946842827013727</v>
       </c>
       <c r="P13">
         <v>0.9945291143266475</v>
@@ -1187,7 +1187,7 @@
         <v>0.9857635524092959</v>
       </c>
       <c r="J15">
-        <v>0.9984076287266518</v>
+        <v>0.998407628726652</v>
       </c>
       <c r="K15">
         <v>0.9896564715863934</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9960871847839889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.034373068099897</v>
+      </c>
+      <c r="D16">
+        <v>0.9546904888427717</v>
+      </c>
+      <c r="E16">
+        <v>0.9948365564448869</v>
+      </c>
+      <c r="F16">
+        <v>0.9842844965884121</v>
+      </c>
+      <c r="G16">
+        <v>1.034373068099897</v>
+      </c>
+      <c r="H16">
+        <v>0.9546904888427717</v>
+      </c>
+      <c r="I16">
+        <v>1.009099559340002</v>
+      </c>
+      <c r="J16">
+        <v>0.9803122053658803</v>
+      </c>
+      <c r="K16">
+        <v>1.008112316780786</v>
+      </c>
+      <c r="L16">
+        <v>0.9676901038902267</v>
+      </c>
+      <c r="M16">
+        <v>1.034373068099897</v>
+      </c>
+      <c r="N16">
+        <v>0.9747635226438294</v>
+      </c>
+      <c r="O16">
+        <v>0.9920461524939921</v>
+      </c>
+      <c r="P16">
+        <v>0.9916748494191079</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.034373068099897</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
@@ -1078,7 +1078,7 @@
         <v>0.9940714062568468</v>
       </c>
       <c r="F13">
-        <v>0.9943235584194052</v>
+        <v>0.9943235584194051</v>
       </c>
       <c r="G13">
         <v>0.9952493334421517</v>
@@ -1096,7 +1096,7 @@
         <v>0.9947240407802228</v>
       </c>
       <c r="L13">
-        <v>0.9940080201044336</v>
+        <v>0.9940080201044339</v>
       </c>
       <c r="M13">
         <v>0.9952204076170561</v>
@@ -1105,7 +1105,7 @@
         <v>0.9945821194719666</v>
       </c>
       <c r="O13">
-        <v>0.9946842827013727</v>
+        <v>0.9946842827013725</v>
       </c>
       <c r="P13">
         <v>0.9945291143266475</v>
@@ -1190,7 +1190,7 @@
         <v>0.9857635524092959</v>
       </c>
       <c r="J15">
-        <v>0.998407628726652</v>
+        <v>0.9984076287266518</v>
       </c>
       <c r="K15">
         <v>0.9896564715863934</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9917279999999995</v>
+        <v>1.034373068099897</v>
       </c>
       <c r="D10">
-        <v>0.8825720000000001</v>
+        <v>0.9546904888427717</v>
       </c>
       <c r="E10">
-        <v>1.063179999999999</v>
+        <v>0.9948365564448869</v>
       </c>
       <c r="F10">
-        <v>0.9718439999999998</v>
+        <v>0.9842844965884121</v>
       </c>
       <c r="G10">
-        <v>0.9917279999999995</v>
+        <v>1.034373068099897</v>
       </c>
       <c r="H10">
-        <v>0.8825720000000001</v>
+        <v>0.9546904888427717</v>
       </c>
       <c r="I10">
-        <v>1.035472000000002</v>
+        <v>1.009099559340002</v>
       </c>
       <c r="J10">
-        <v>1.006656</v>
+        <v>0.9803122053658803</v>
       </c>
       <c r="K10">
-        <v>0.9960679999999991</v>
+        <v>1.008112316780786</v>
       </c>
       <c r="L10">
-        <v>0.9424160000000001</v>
+        <v>0.9676901038902267</v>
       </c>
       <c r="M10">
-        <v>0.9917279999999995</v>
+        <v>1.034373068099897</v>
       </c>
       <c r="N10">
-        <v>0.9728759999999997</v>
+        <v>0.9747635226438294</v>
       </c>
       <c r="O10">
-        <v>0.9773309999999997</v>
+        <v>0.9920461524939921</v>
       </c>
       <c r="P10">
-        <v>0.986242</v>
+        <v>0.9916748494191079</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>1.037776720066717</v>
       </c>
       <c r="D11">
-        <v>0.7441749999999996</v>
+        <v>0.9195484763085515</v>
       </c>
       <c r="E11">
-        <v>1.12</v>
+        <v>1.014008649095871</v>
       </c>
       <c r="F11">
-        <v>0.9399999999999999</v>
+        <v>0.9794154155778751</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.037776720066717</v>
       </c>
       <c r="H11">
-        <v>0.7441749999999996</v>
+        <v>0.9195484763085515</v>
       </c>
       <c r="I11">
-        <v>1.09</v>
+        <v>1.020246588260731</v>
       </c>
       <c r="J11">
-        <v>0.9997249999999999</v>
+        <v>0.9799654006668854</v>
       </c>
       <c r="K11">
-        <v>1.02</v>
+        <v>1.010318185172167</v>
       </c>
       <c r="L11">
-        <v>0.86</v>
+        <v>0.9490305054455036</v>
       </c>
       <c r="M11">
-        <v>1.05</v>
+        <v>1.037776720066717</v>
       </c>
       <c r="N11">
-        <v>0.9320874999999998</v>
+        <v>0.9667785627022113</v>
       </c>
       <c r="O11">
-        <v>0.9635437499999999</v>
+        <v>0.9876873152622537</v>
       </c>
       <c r="P11">
-        <v>0.9779875</v>
+        <v>0.9887887425742876</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027482800742397</v>
+        <v>1.03674519565764</v>
       </c>
       <c r="D12">
-        <v>0.8492699950080026</v>
+        <v>0.9207194887095403</v>
       </c>
       <c r="E12">
-        <v>1.066959672217595</v>
+        <v>1.013876101259005</v>
       </c>
       <c r="F12">
-        <v>0.9633735897088004</v>
+        <v>0.9796629449759158</v>
       </c>
       <c r="G12">
-        <v>1.027482800742397</v>
+        <v>1.03674519565764</v>
       </c>
       <c r="H12">
-        <v>0.8492699950080026</v>
+        <v>0.9207194887095403</v>
       </c>
       <c r="I12">
-        <v>1.049439556607997</v>
+        <v>1.019840217749828</v>
       </c>
       <c r="J12">
-        <v>0.9962732007423972</v>
+        <v>0.9802751382370257</v>
       </c>
       <c r="K12">
-        <v>1.009838548172802</v>
+        <v>1.009933091784984</v>
       </c>
       <c r="L12">
-        <v>0.9162895775744028</v>
+        <v>0.9497855456935685</v>
       </c>
       <c r="M12">
-        <v>1.027482800742397</v>
+        <v>1.03674519565764</v>
       </c>
       <c r="N12">
-        <v>0.9581148336127987</v>
+        <v>0.9672977949842727</v>
       </c>
       <c r="O12">
-        <v>0.9767715144191987</v>
+        <v>0.9877509326505252</v>
       </c>
       <c r="P12">
-        <v>0.9848658675967994</v>
+        <v>0.9888547155084384</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9952493334421517</v>
+        <v>1.037575532303584</v>
       </c>
       <c r="D13">
-        <v>0.9950928326870866</v>
+        <v>0.9198451294928961</v>
       </c>
       <c r="E13">
-        <v>0.9940714062568468</v>
+        <v>1.013944975176742</v>
       </c>
       <c r="F13">
-        <v>0.9943235584194051</v>
+        <v>0.9794753163209881</v>
       </c>
       <c r="G13">
-        <v>0.9952493334421517</v>
+        <v>1.037575532303584</v>
       </c>
       <c r="H13">
-        <v>0.9950928326870866</v>
+        <v>0.9198451294928961</v>
       </c>
       <c r="I13">
-        <v>0.9941345088924766</v>
+        <v>1.020127931300284</v>
       </c>
       <c r="J13">
-        <v>0.9946292140305567</v>
+        <v>0.9799929887866953</v>
       </c>
       <c r="K13">
-        <v>0.9947240407802228</v>
+        <v>1.010224996543154</v>
       </c>
       <c r="L13">
-        <v>0.9940080201044339</v>
+        <v>0.9491988078337664</v>
       </c>
       <c r="M13">
-        <v>0.9952204076170561</v>
+        <v>1.037575532303584</v>
       </c>
       <c r="N13">
-        <v>0.9945821194719666</v>
+        <v>0.9668950523348188</v>
       </c>
       <c r="O13">
-        <v>0.9946842827013725</v>
+        <v>0.9877102383235524</v>
       </c>
       <c r="P13">
-        <v>0.9945291143266475</v>
+        <v>0.9887982097197638</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9863588146071024</v>
+        <v>0.9917279999999995</v>
       </c>
       <c r="D14">
-        <v>0.998589122701302</v>
+        <v>0.8825720000000001</v>
       </c>
       <c r="E14">
-        <v>0.9975763477501917</v>
+        <v>1.063179999999999</v>
       </c>
       <c r="F14">
-        <v>0.9961446326860461</v>
+        <v>0.9718439999999998</v>
       </c>
       <c r="G14">
-        <v>0.9863588146071024</v>
+        <v>0.9917279999999995</v>
       </c>
       <c r="H14">
-        <v>0.998589122701302</v>
+        <v>0.8825720000000001</v>
       </c>
       <c r="I14">
-        <v>0.993049372844873</v>
+        <v>1.035472000000002</v>
       </c>
       <c r="J14">
-        <v>0.9992302443422533</v>
+        <v>1.006656</v>
       </c>
       <c r="K14">
-        <v>0.991994226048764</v>
+        <v>0.9960679999999991</v>
       </c>
       <c r="L14">
-        <v>0.9968456381361711</v>
+        <v>0.9424160000000001</v>
       </c>
       <c r="M14">
-        <v>0.9863588146071024</v>
+        <v>0.9917279999999995</v>
       </c>
       <c r="N14">
-        <v>0.9980827352257469</v>
+        <v>0.9728759999999997</v>
       </c>
       <c r="O14">
-        <v>0.9946672294361605</v>
+        <v>0.9773309999999997</v>
       </c>
       <c r="P14">
-        <v>0.994973549889588</v>
+        <v>0.986242</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9806480779794212</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.016387545029663</v>
+        <v>0.7441749999999996</v>
       </c>
       <c r="E15">
-        <v>0.9890765221817207</v>
+        <v>1.12</v>
       </c>
       <c r="F15">
-        <v>0.9995061223993642</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G15">
-        <v>0.9806480779794212</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>1.016387545029663</v>
+        <v>0.7441749999999996</v>
       </c>
       <c r="I15">
-        <v>0.9857635524092959</v>
+        <v>1.09</v>
       </c>
       <c r="J15">
-        <v>0.9984076287266518</v>
+        <v>0.9997249999999999</v>
       </c>
       <c r="K15">
-        <v>0.9896564715863934</v>
+        <v>1.02</v>
       </c>
       <c r="L15">
-        <v>1.009251557959401</v>
+        <v>0.86</v>
       </c>
       <c r="M15">
-        <v>0.9806480779794212</v>
+        <v>1.05</v>
       </c>
       <c r="N15">
-        <v>1.002732033605692</v>
+        <v>0.9320874999999998</v>
       </c>
       <c r="O15">
-        <v>0.9964045668975424</v>
+        <v>0.9635437499999999</v>
       </c>
       <c r="P15">
-        <v>0.9960871847839889</v>
+        <v>0.9779875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.034373068099897</v>
+        <v>1.027482800742397</v>
       </c>
       <c r="D16">
-        <v>0.9546904888427717</v>
+        <v>0.8492699950080026</v>
       </c>
       <c r="E16">
-        <v>0.9948365564448869</v>
+        <v>1.066959672217595</v>
       </c>
       <c r="F16">
-        <v>0.9842844965884121</v>
+        <v>0.9633735897088004</v>
       </c>
       <c r="G16">
-        <v>1.034373068099897</v>
+        <v>1.027482800742397</v>
       </c>
       <c r="H16">
-        <v>0.9546904888427717</v>
+        <v>0.8492699950080026</v>
       </c>
       <c r="I16">
-        <v>1.009099559340002</v>
+        <v>1.049439556607997</v>
       </c>
       <c r="J16">
-        <v>0.9803122053658803</v>
+        <v>0.9962732007423972</v>
       </c>
       <c r="K16">
-        <v>1.008112316780786</v>
+        <v>1.009838548172802</v>
       </c>
       <c r="L16">
-        <v>0.9676901038902267</v>
+        <v>0.9162895775744028</v>
       </c>
       <c r="M16">
-        <v>1.034373068099897</v>
+        <v>1.027482800742397</v>
       </c>
       <c r="N16">
-        <v>0.9747635226438294</v>
+        <v>0.9581148336127987</v>
       </c>
       <c r="O16">
-        <v>0.9920461524939921</v>
+        <v>0.9767715144191987</v>
       </c>
       <c r="P16">
-        <v>0.9916748494191079</v>
+        <v>0.9848658675967994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9952493334421517</v>
+      </c>
+      <c r="D17">
+        <v>0.9950928326870866</v>
+      </c>
+      <c r="E17">
+        <v>0.9940714062568468</v>
+      </c>
+      <c r="F17">
+        <v>0.9943235584194052</v>
+      </c>
+      <c r="G17">
+        <v>0.9952493334421517</v>
+      </c>
+      <c r="H17">
+        <v>0.9950928326870866</v>
+      </c>
+      <c r="I17">
+        <v>0.9941345088924766</v>
+      </c>
+      <c r="J17">
+        <v>0.9946292140305567</v>
+      </c>
+      <c r="K17">
+        <v>0.9947240407802228</v>
+      </c>
+      <c r="L17">
+        <v>0.9940080201044336</v>
+      </c>
+      <c r="M17">
+        <v>0.9952204076170561</v>
+      </c>
+      <c r="N17">
+        <v>0.9945821194719666</v>
+      </c>
+      <c r="O17">
+        <v>0.9946842827013727</v>
+      </c>
+      <c r="P17">
+        <v>0.9945291143266475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9863588146071024</v>
+      </c>
+      <c r="D18">
+        <v>0.998589122701302</v>
+      </c>
+      <c r="E18">
+        <v>0.9975763477501917</v>
+      </c>
+      <c r="F18">
+        <v>0.9961446326860461</v>
+      </c>
+      <c r="G18">
+        <v>0.9863588146071024</v>
+      </c>
+      <c r="H18">
+        <v>0.998589122701302</v>
+      </c>
+      <c r="I18">
+        <v>0.993049372844873</v>
+      </c>
+      <c r="J18">
+        <v>0.9992302443422533</v>
+      </c>
+      <c r="K18">
+        <v>0.991994226048764</v>
+      </c>
+      <c r="L18">
+        <v>0.9968456381361711</v>
+      </c>
+      <c r="M18">
+        <v>0.9863588146071024</v>
+      </c>
+      <c r="N18">
+        <v>0.9980827352257469</v>
+      </c>
+      <c r="O18">
+        <v>0.9946672294361605</v>
+      </c>
+      <c r="P18">
+        <v>0.994973549889588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9806480779794212</v>
+      </c>
+      <c r="D19">
+        <v>1.016387545029663</v>
+      </c>
+      <c r="E19">
+        <v>0.9890765221817207</v>
+      </c>
+      <c r="F19">
+        <v>0.9995061223993642</v>
+      </c>
+      <c r="G19">
+        <v>0.9806480779794212</v>
+      </c>
+      <c r="H19">
+        <v>1.016387545029663</v>
+      </c>
+      <c r="I19">
+        <v>0.9857635524092959</v>
+      </c>
+      <c r="J19">
+        <v>0.998407628726652</v>
+      </c>
+      <c r="K19">
+        <v>0.9896564715863934</v>
+      </c>
+      <c r="L19">
+        <v>1.009251557959401</v>
+      </c>
+      <c r="M19">
+        <v>0.9806480779794212</v>
+      </c>
+      <c r="N19">
+        <v>1.002732033605692</v>
+      </c>
+      <c r="O19">
+        <v>0.9964045668975424</v>
+      </c>
+      <c r="P19">
+        <v>0.9960871847839889</v>
       </c>
     </row>
   </sheetData>
